--- a/pubmed_validation_sheets/9696186 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/9696186 DISNET VALIDATION.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/IdeaProjects/disnet_rest/tmp/excel/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7C7CFE9B-78B2-944A-BD9F-70EC3F375FDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262EBB8-38F6-924D-86CE-F1F6E8FEC28B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38500" yWindow="460" windowWidth="21440" windowHeight="21140" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
+    <workbookView xWindow="39840" yWindow="460" windowWidth="25600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="80">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -258,18 +261,28 @@
   </si>
   <si>
     <t>acute hemorrhagic necrosis of the adrenal glands</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>Tumor stage</t>
+  </si>
+  <si>
+    <t>[clna]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,6 +297,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -337,16 +357,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,44 +511,44 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +562,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +602,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -600,8 +624,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -659,7 +684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -711,7 +736,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -912,14 +937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
@@ -931,37 +956,37 @@
     <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="126" customHeight="1" thickBot="1">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:9" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -987,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1016,7 +1041,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1045,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1074,7 +1099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1103,7 +1128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1132,7 +1157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1161,7 +1186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1190,7 +1215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1219,7 +1244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1248,7 +1273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1277,7 +1302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1306,7 +1331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1335,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1364,7 +1389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1393,7 +1418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1422,7 +1447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1451,7 +1476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1480,7 +1505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1509,7 +1534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1538,7 +1563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1567,7 +1592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1596,7 +1621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1625,7 +1650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1654,7 +1679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1683,7 +1708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1712,7 +1737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1741,7 +1766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1770,7 +1795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1799,35 +1824,67 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="10" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="14" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="14" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1836,6 +1893,10 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>